--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H2">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I2">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J2">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P2">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q2">
-        <v>0.1199333516179595</v>
+        <v>0.000380278</v>
       </c>
       <c r="R2">
-        <v>0.1199333516179595</v>
+        <v>0.003422502</v>
       </c>
       <c r="S2">
-        <v>0.2078545487538797</v>
+        <v>0.0003248950371064109</v>
       </c>
       <c r="T2">
-        <v>0.2078545487538797</v>
+        <v>0.0004103400549236224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H3">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I3">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J3">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N3">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O3">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P3">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q3">
-        <v>0.3945293024120587</v>
+        <v>0.02775015325333333</v>
       </c>
       <c r="R3">
-        <v>0.3945293024120587</v>
+        <v>0.24975137928</v>
       </c>
       <c r="S3">
-        <v>0.6837523425865932</v>
+        <v>0.02370867384111183</v>
       </c>
       <c r="T3">
-        <v>0.6837523425865932</v>
+        <v>0.02994388160795981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04335008402994</v>
+        <v>0.07108</v>
       </c>
       <c r="H4">
-        <v>0.04335008402994</v>
+        <v>0.21324</v>
       </c>
       <c r="I4">
-        <v>0.09080448549669824</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J4">
-        <v>0.09080448549669824</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N4">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O4">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P4">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q4">
-        <v>0.01221444831049957</v>
+        <v>0.01546852437333333</v>
       </c>
       <c r="R4">
-        <v>0.01221444831049957</v>
+        <v>0.13921671936</v>
       </c>
       <c r="S4">
-        <v>0.02116866249134572</v>
+        <v>0.01321571797541681</v>
       </c>
       <c r="T4">
-        <v>0.02116866249134572</v>
+        <v>0.01669135511636485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04335008402994</v>
+        <v>0.07108</v>
       </c>
       <c r="H5">
-        <v>0.04335008402994</v>
+        <v>0.21324</v>
       </c>
       <c r="I5">
-        <v>0.09080448549669824</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J5">
-        <v>0.09080448549669824</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N5">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O5">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P5">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q5">
-        <v>0.04018029769267222</v>
+        <v>0.0689772759</v>
       </c>
       <c r="R5">
-        <v>0.04018029769267222</v>
+        <v>0.4138636554</v>
       </c>
       <c r="S5">
-        <v>0.06963582300535252</v>
+        <v>0.0589315569478898</v>
       </c>
       <c r="T5">
-        <v>0.06963582300535252</v>
+        <v>0.04962008352010523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H6">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I6">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J6">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P6">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q6">
-        <v>0.002365910971248638</v>
+        <v>0.003196559016666666</v>
       </c>
       <c r="R6">
-        <v>0.002365910971248638</v>
+        <v>0.02876903115</v>
       </c>
       <c r="S6">
-        <v>0.004100321976219157</v>
+        <v>0.002731018255941045</v>
       </c>
       <c r="T6">
-        <v>0.004100321976219157</v>
+        <v>0.003449256077042586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5974876666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.792463</v>
+      </c>
+      <c r="I7">
+        <v>0.8084815410946006</v>
+      </c>
+      <c r="J7">
+        <v>0.8125568348206718</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.171222</v>
+      </c>
+      <c r="O7">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P7">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q7">
+        <v>0.2332635666428889</v>
+      </c>
+      <c r="R7">
+        <v>2.099372099786</v>
+      </c>
+      <c r="S7">
+        <v>0.1992915055302045</v>
+      </c>
+      <c r="T7">
+        <v>0.2517037134620543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5974876666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.792463</v>
+      </c>
+      <c r="I8">
+        <v>0.8084815410946006</v>
+      </c>
+      <c r="J8">
+        <v>0.8125568348206718</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.652864</v>
+      </c>
+      <c r="O8">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P8">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q8">
+        <v>0.1300260626702222</v>
+      </c>
+      <c r="R8">
+        <v>1.170234564032</v>
+      </c>
+      <c r="S8">
+        <v>0.1110893148066476</v>
+      </c>
+      <c r="T8">
+        <v>0.140304991868058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5974876666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.792463</v>
+      </c>
+      <c r="I9">
+        <v>0.8084815410946006</v>
+      </c>
+      <c r="J9">
+        <v>0.8125568348206718</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.940835</v>
+      </c>
+      <c r="O9">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P9">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q9">
+        <v>0.5798124877674999</v>
+      </c>
+      <c r="R9">
+        <v>3.478874926605</v>
+      </c>
+      <c r="S9">
+        <v>0.4953697025018073</v>
+      </c>
+      <c r="T9">
+        <v>0.417098873413517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178012</v>
+      </c>
+      <c r="I10">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J10">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.00535</v>
+      </c>
+      <c r="N10">
+        <v>0.01605</v>
+      </c>
+      <c r="O10">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P10">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q10">
+        <v>0.0003174547333333333</v>
+      </c>
+      <c r="R10">
+        <v>0.0028570926</v>
+      </c>
+      <c r="S10">
+        <v>0.0002712212312201576</v>
+      </c>
+      <c r="T10">
+        <v>0.0003425504307684481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="H7">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="I7">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="J7">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="N7">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="O7">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="P7">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="Q7">
-        <v>0.007782832652164332</v>
-      </c>
-      <c r="R7">
-        <v>0.007782832652164332</v>
-      </c>
-      <c r="S7">
-        <v>0.0134883011866095</v>
-      </c>
-      <c r="T7">
-        <v>0.0134883011866095</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178012</v>
+      </c>
+      <c r="I11">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J11">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.171222</v>
+      </c>
+      <c r="O11">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P11">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q11">
+        <v>0.02316573007377778</v>
+      </c>
+      <c r="R11">
+        <v>0.208491570664</v>
+      </c>
+      <c r="S11">
+        <v>0.01979191731290563</v>
+      </c>
+      <c r="T11">
+        <v>0.02499704676794288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.178012</v>
+      </c>
+      <c r="I12">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J12">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.652864</v>
+      </c>
+      <c r="O12">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P12">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q12">
+        <v>0.01291306959644444</v>
+      </c>
+      <c r="R12">
+        <v>0.116217626368</v>
+      </c>
+      <c r="S12">
+        <v>0.01103243476008206</v>
+      </c>
+      <c r="T12">
+        <v>0.01393388438836212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178012</v>
+      </c>
+      <c r="I13">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J13">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.940835</v>
+      </c>
+      <c r="O13">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P13">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q13">
+        <v>0.05758198666999999</v>
+      </c>
+      <c r="R13">
+        <v>0.34549192002</v>
+      </c>
+      <c r="S13">
+        <v>0.04919585591543688</v>
+      </c>
+      <c r="T13">
+        <v>0.04142267073523246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.0111195</v>
+      </c>
+      <c r="H14">
+        <v>0.022239</v>
+      </c>
+      <c r="I14">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J14">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00535</v>
+      </c>
+      <c r="N14">
+        <v>0.01605</v>
+      </c>
+      <c r="O14">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P14">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q14">
+        <v>5.948932499999999E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.00035693595</v>
+      </c>
+      <c r="S14">
+        <v>5.082541312752863E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.279474995988763E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.0111195</v>
+      </c>
+      <c r="H15">
+        <v>0.022239</v>
+      </c>
+      <c r="I15">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J15">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.171222</v>
+      </c>
+      <c r="O15">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P15">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q15">
+        <v>0.004341134343</v>
+      </c>
+      <c r="R15">
+        <v>0.026046806058</v>
+      </c>
+      <c r="S15">
+        <v>0.003708899813959522</v>
+      </c>
+      <c r="T15">
+        <v>0.003122875553739533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.0111195</v>
+      </c>
+      <c r="H16">
+        <v>0.022239</v>
+      </c>
+      <c r="I16">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J16">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.652864</v>
+      </c>
+      <c r="O16">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P16">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q16">
+        <v>0.002419840416</v>
+      </c>
+      <c r="R16">
+        <v>0.014519042496</v>
+      </c>
+      <c r="S16">
+        <v>0.00206741947140753</v>
+      </c>
+      <c r="T16">
+        <v>0.001740757111390161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0111195</v>
+      </c>
+      <c r="H17">
+        <v>0.022239</v>
+      </c>
+      <c r="I17">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J17">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.940835</v>
+      </c>
+      <c r="O17">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P17">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q17">
+        <v>0.01079055739125</v>
+      </c>
+      <c r="R17">
+        <v>0.04316222956499999</v>
+      </c>
+      <c r="S17">
+        <v>0.009219041185735235</v>
+      </c>
+      <c r="T17">
+        <v>0.005174925142579346</v>
       </c>
     </row>
   </sheetData>
